--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Angular Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C664C83-E571-4F5E-9F74-D4DD1058D6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF5A165-01F2-4F10-94B4-FA84DCD9AC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lamija Aždahić" sheetId="27" r:id="rId1"/>
-    <sheet name="Sara Peco" sheetId="26" r:id="rId2"/>
-    <sheet name="Amar Omerovic" sheetId="25" r:id="rId3"/>
-    <sheet name="Enver Šejtanić" sheetId="24" r:id="rId4"/>
-    <sheet name="Arijana Husic" sheetId="23" r:id="rId5"/>
-    <sheet name="Ajla Frašto" sheetId="22" r:id="rId6"/>
-    <sheet name="Belma Jelic" sheetId="18" r:id="rId7"/>
-    <sheet name="Elma Ćatić" sheetId="19" r:id="rId8"/>
-    <sheet name="Ema Duric" sheetId="20" r:id="rId9"/>
-    <sheet name="Ajla Rahic" sheetId="21" r:id="rId10"/>
+    <sheet name="Ajdin Alić" sheetId="29" r:id="rId1"/>
+    <sheet name="Amar Kodro" sheetId="28" r:id="rId2"/>
+    <sheet name="Lamija Aždahić" sheetId="27" r:id="rId3"/>
+    <sheet name="Sara Peco" sheetId="26" r:id="rId4"/>
+    <sheet name="Amar Omerovic" sheetId="25" r:id="rId5"/>
+    <sheet name="Enver Šejtanić" sheetId="24" r:id="rId6"/>
+    <sheet name="Arijana Husic" sheetId="23" r:id="rId7"/>
+    <sheet name="Ajla Frašto" sheetId="22" r:id="rId8"/>
+    <sheet name="Belma Jelic" sheetId="18" r:id="rId9"/>
+    <sheet name="Elma Ćatić" sheetId="19" r:id="rId10"/>
+    <sheet name="Ema Duric" sheetId="20" r:id="rId11"/>
+    <sheet name="Ajla Rahic" sheetId="21" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -130,6 +132,36 @@
   </si>
   <si>
     <t xml:space="preserve">nismo napravili azure i taskove i repos </t>
+  </si>
+  <si>
+    <t>Sub u 5:10</t>
+  </si>
+  <si>
+    <t>odradili azure i taskove</t>
+  </si>
+  <si>
+    <t>Sub u 5</t>
+  </si>
+  <si>
+    <t>zapoceli prakticni uradili add edit student na b</t>
+  </si>
+  <si>
+    <t>top al nas zezao net pa stali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odradili add edit delete </t>
+  </si>
+  <si>
+    <t>Petak u 3:10</t>
+  </si>
+  <si>
+    <t>odradili pratkicni do get studenta na frontu</t>
+  </si>
+  <si>
+    <t>Srijeda u 5:30</t>
+  </si>
+  <si>
+    <t>odradili add edit delete</t>
   </si>
 </sst>
 </file>
@@ -364,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,10 +536,25 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,11 +841,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A84A2C-098E-4CA2-B549-B14258D3B171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B93E-A90B-426D-A442-E7A2F409FC79}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,21 +880,21 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45639</v>
+        <v>45292</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="25">
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="F2" s="48"/>
+        <v>6</v>
+      </c>
+      <c r="E2" s="40">
+        <v>2</v>
+      </c>
+      <c r="F2" s="47"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -856,7 +903,7 @@
       <c r="B3" s="44"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="47"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -882,12 +929,12 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -1057,6 +1104,548 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878A8CF1-2EB3-46A2-93B1-03B0B164C67F}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45318</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="25">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="35">
+        <v>45325</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="25">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A0F232-65F0-446C-90F3-E40622D24BA3}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="25">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85728F3-D08E-402E-9107-BFBF6A57AF30}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -1333,6 +1922,571 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA510FC-BD66-42D5-B8C5-14539F172AC2}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45657</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="25">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A84A2C-098E-4CA2-B549-B14258D3B171}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45639</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="25">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="35">
+        <v>45647</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="35">
+        <v>45654</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="50">
+        <v>45292</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="52">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F5" s="53">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B220E1C5-3F0E-4375-B128-EF4285FCD0A4}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -1608,7 +2762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D615789-29FE-4A7F-974C-4B0A4EB28331}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -1884,7 +3038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B00BDF-533D-4930-9B25-8556775C9EE1}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -2162,7 +3316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538863A7-3214-48DA-9299-B56264F947C1}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -2440,7 +3594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1029BCB-B862-40BF-B4B9-40CB1F74A4C6}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -2726,7 +3880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB6C15-FDCD-4FAD-B16C-642840A185C5}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -3000,546 +4154,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878A8CF1-2EB3-46A2-93B1-03B0B164C67F}">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45318</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="25">
-        <v>7.9861111111111105E-2</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="35">
-        <v>45325</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="25">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A0F232-65F0-446C-90F3-E40622D24BA3}">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45322</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="25">
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Angular Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF5A165-01F2-4F10-94B4-FA84DCD9AC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D52CBA7-B57F-485B-96CD-295AE49640A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ajdin Alić" sheetId="29" r:id="rId1"/>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B93E-A90B-426D-A442-E7A2F409FC79}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1925,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA510FC-BD66-42D5-B8C5-14539F172AC2}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1975,7 +1975,7 @@
       <c r="E2" s="25">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
